--- a/data/Excel/指标维度库.xlsx
+++ b/data/Excel/指标维度库.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="166">
-  <si>
-    <t xml:space="preserve">指标名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="129">
+  <si>
+    <t xml:space="preserve">数据名</t>
   </si>
   <si>
     <t xml:space="preserve">二级维度</t>
@@ -37,12 +37,6 @@
     <t xml:space="preserve">DRGs组数</t>
   </si>
   <si>
-    <t xml:space="preserve">待定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICU床占比</t>
-  </si>
-  <si>
     <t xml:space="preserve">I类切口手术部位感染率▲</t>
   </si>
   <si>
@@ -55,15 +49,12 @@
     <t xml:space="preserve">学科建设</t>
   </si>
   <si>
-    <t xml:space="preserve">本科及以上护士占比</t>
+    <t xml:space="preserve">病理医师占比</t>
   </si>
   <si>
     <t xml:space="preserve">人员结构</t>
   </si>
   <si>
-    <t xml:space="preserve">病理医师占比</t>
-  </si>
-  <si>
     <t xml:space="preserve">博士研究生导师占比</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
     <t xml:space="preserve">大型医用设备检查阳性率</t>
   </si>
   <si>
-    <t xml:space="preserve">单病种质量控制▲</t>
-  </si>
-  <si>
     <t xml:space="preserve">低风险组病例死亡率▲</t>
   </si>
   <si>
@@ -145,9 +133,6 @@
     <t xml:space="preserve">高级职称医师占比</t>
   </si>
   <si>
-    <t xml:space="preserve">管床护士占比</t>
-  </si>
-  <si>
     <t xml:space="preserve">国家组织药品集中采购中标药品金额占比</t>
   </si>
   <si>
@@ -160,12 +145,6 @@
     <t xml:space="preserve">护理人员系统接受中医药知识和技能培训比例</t>
   </si>
   <si>
-    <t xml:space="preserve">患者满意度▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">患者满意度</t>
-  </si>
-  <si>
     <t xml:space="preserve">基本药物采购金额占比</t>
   </si>
   <si>
@@ -184,9 +163,6 @@
     <t xml:space="preserve">理法方药使用一致的出院患者比例</t>
   </si>
   <si>
-    <t xml:space="preserve">麻醉、儿科、重症、病理、中医医师占比▲</t>
-  </si>
-  <si>
     <t xml:space="preserve">麻醉医师占比</t>
   </si>
   <si>
@@ -205,19 +181,16 @@
     <t xml:space="preserve">每百名卫生技术人员重点学科、重点专科经费投入</t>
   </si>
   <si>
-    <t xml:space="preserve">每百医师SCI文章数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百医师国家级科研项目数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百医师国家自然科学基金项目数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百医师国内中文核心期刊量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百医师省级以上科研项目数量</t>
+    <t xml:space="preserve">医师人均SCI文章数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医师人均国家级科研项目数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医师人均国家自然科学基金项目数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医师人均国内中文核心期刊文章数量</t>
   </si>
   <si>
     <t xml:space="preserve">每百张病床药师人数</t>
@@ -238,18 +211,9 @@
     <t xml:space="preserve">每名执业医师日均住院工作负担</t>
   </si>
   <si>
-    <t xml:space="preserve">每医师出院量</t>
-  </si>
-  <si>
     <t xml:space="preserve">每医师门急诊收入</t>
   </si>
   <si>
-    <t xml:space="preserve">每医师门诊量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每医师日均担负住院床日数</t>
-  </si>
-  <si>
     <t xml:space="preserve">每医师住院收入</t>
   </si>
   <si>
@@ -268,9 +232,6 @@
     <t xml:space="preserve">门诊患者抗菌药物使用率</t>
   </si>
   <si>
-    <t xml:space="preserve">门诊患者满意度▲</t>
-  </si>
-  <si>
     <t xml:space="preserve">门诊患者平均预约诊疗率</t>
   </si>
   <si>
@@ -283,15 +244,9 @@
     <t xml:space="preserve">门诊患者中药饮片使用率▲</t>
   </si>
   <si>
-    <t xml:space="preserve">门诊人次数与出院人次数比</t>
-  </si>
-  <si>
     <t xml:space="preserve">门诊散装中药饮片和小包装中药饮片处方比例▲</t>
   </si>
   <si>
-    <t xml:space="preserve">门诊收入占比</t>
-  </si>
-  <si>
     <t xml:space="preserve">门诊收入占医疗收入比例</t>
   </si>
   <si>
@@ -310,24 +265,9 @@
     <t xml:space="preserve">人才培养经费投入占比</t>
   </si>
   <si>
-    <t xml:space="preserve">人床比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人均出院量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人均门诊量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人均住院手术量</t>
-  </si>
-  <si>
     <t xml:space="preserve">人员支出占业务支出比重▲</t>
   </si>
   <si>
-    <t xml:space="preserve">日间手术占比</t>
-  </si>
-  <si>
     <t xml:space="preserve">日间手术占择期手术比例</t>
   </si>
   <si>
@@ -358,18 +298,9 @@
     <t xml:space="preserve">万元收入能耗占比▲</t>
   </si>
   <si>
-    <t xml:space="preserve">危重病例比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卫生技术人员职称结构</t>
-  </si>
-  <si>
     <t xml:space="preserve">下转患者人次数</t>
   </si>
   <si>
-    <t xml:space="preserve">信息化投入占医疗收入比重</t>
-  </si>
-  <si>
     <t xml:space="preserve">药占比</t>
   </si>
   <si>
@@ -385,12 +316,6 @@
     <t xml:space="preserve">医疗机构中药制剂收入占药品收入比例▲</t>
   </si>
   <si>
-    <t xml:space="preserve">床均医疗设备资产金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗设备资产占比</t>
-  </si>
-  <si>
     <t xml:space="preserve">医疗收入增幅▲</t>
   </si>
   <si>
@@ -406,36 +331,24 @@
     <t xml:space="preserve">医务人员满意度</t>
   </si>
   <si>
-    <t xml:space="preserve">医院承担培养医学人才的工作成效</t>
+    <t xml:space="preserve">医院感染发生率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院接受其他医院进修并返回原医院独立工作人数占比</t>
   </si>
   <si>
     <t xml:space="preserve">人才培养</t>
   </si>
   <si>
-    <t xml:space="preserve">医院感染发生率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院接受其他医院进修并返回原医院独立工作人数占比</t>
-  </si>
-  <si>
     <t xml:space="preserve">医院住院医师首次参加医师资格考试通过率▲</t>
   </si>
   <si>
-    <t xml:space="preserve">疑难病例比例</t>
-  </si>
-  <si>
     <t xml:space="preserve">疑难危重病例比例</t>
   </si>
   <si>
     <t xml:space="preserve">以中医为主治疗的出院患者比例▲</t>
   </si>
   <si>
-    <t xml:space="preserve">优质护理服务病房覆盖率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在岗的麻醉、儿科、重症、病理医师占比</t>
-  </si>
-  <si>
     <t xml:space="preserve">择期手术患者术前平均住院日</t>
   </si>
   <si>
@@ -478,18 +391,9 @@
     <t xml:space="preserve">住院患者基本药物使用率</t>
   </si>
   <si>
-    <t xml:space="preserve">住院患者抗菌药物使用率</t>
-  </si>
-  <si>
     <t xml:space="preserve">住院患者抗菌药物使用强度</t>
   </si>
   <si>
-    <t xml:space="preserve">住院患者满意度▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院患者抢救成功率</t>
-  </si>
-  <si>
     <t xml:space="preserve">住院收入占医疗收入比例</t>
   </si>
   <si>
@@ -502,22 +406,7 @@
     <t xml:space="preserve">住院中医医疗服务项目收入占住院医疗收入比例▲</t>
   </si>
   <si>
-    <t xml:space="preserve">专科能力▲</t>
-  </si>
-  <si>
     <t xml:space="preserve">资产负债率▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCI影响因子最高分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百元医疗收入成本</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医师日均担负门急诊人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医师日均担负住院床日数</t>
   </si>
 </sst>
 </file>
@@ -627,7 +516,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -647,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -655,20 +544,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,44 +581,44 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -737,7 +626,7 @@
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -745,7 +634,7 @@
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -753,7 +642,7 @@
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
@@ -761,10 +650,10 @@
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,15 +661,15 @@
         <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,23 +677,23 @@
         <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,7 +701,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -820,7 +709,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,15 +717,15 @@
         <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,7 +733,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,7 +741,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,124 +749,124 @@
         <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>8</v>
@@ -985,263 +874,263 @@
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>3</v>
@@ -1249,63 +1138,63 @@
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>3</v>
@@ -1313,127 +1202,127 @@
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>3</v>
@@ -1441,90 +1330,90 @@
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,7 +1421,7 @@
         <v>119</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,7 +1429,7 @@
         <v>120</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1548,7 +1437,7 @@
         <v>121</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,7 +1445,7 @@
         <v>122</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,7 +1453,7 @@
         <v>123</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,7 +1461,7 @@
         <v>124</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,7 +1469,7 @@
         <v>125</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,321 +1477,62 @@
         <v>126</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/Excel/指标维度库.xlsx
+++ b/data/Excel/指标维度库.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="130">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t xml:space="preserve">资产负债率▲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院在医学人才培养方面的经费投入占比</t>
   </si>
 </sst>
 </file>
@@ -518,8 +521,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B123" activeCellId="0" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1494,6 +1497,14 @@
       </c>
       <c r="B121" s="0" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/Excel/指标维度库.xlsx
+++ b/data/Excel/指标维度库.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="131">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t xml:space="preserve">医护比▲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入</t>
   </si>
   <si>
     <t xml:space="preserve">医疗服务收入占医疗收入比例▲</t>
@@ -521,11 +524,11 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B123" activeCellId="0" sqref="B123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.33"/>
@@ -1253,7 +1256,7 @@
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>33</v>
@@ -1261,7 +1264,7 @@
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>33</v>
@@ -1269,7 +1272,7 @@
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>23</v>
@@ -1277,7 +1280,7 @@
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>33</v>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>33</v>
@@ -1293,15 +1296,15 @@
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>6</v>
@@ -1309,23 +1312,23 @@
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>3</v>
@@ -1333,7 +1336,7 @@
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>3</v>
@@ -1341,7 +1344,7 @@
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>21</v>
@@ -1349,7 +1352,7 @@
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>10</v>
@@ -1357,7 +1360,7 @@
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>33</v>
@@ -1365,7 +1368,7 @@
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>33</v>
@@ -1373,7 +1376,7 @@
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>10</v>
@@ -1381,7 +1384,7 @@
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>10</v>
@@ -1389,7 +1392,7 @@
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>28</v>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>33</v>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>28</v>
@@ -1413,7 +1416,7 @@
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>10</v>
@@ -1421,7 +1424,7 @@
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>23</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>23</v>
@@ -1437,7 +1440,7 @@
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>6</v>
@@ -1445,7 +1448,7 @@
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>28</v>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>28</v>
@@ -1461,7 +1464,7 @@
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>33</v>
@@ -1469,7 +1472,7 @@
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>33</v>
@@ -1477,7 +1480,7 @@
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>3</v>
@@ -1485,7 +1488,7 @@
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>33</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>33</v>
@@ -1501,10 +1504,10 @@
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/Excel/指标维度库.xlsx
+++ b/data/Excel/指标维度库.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="129">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -326,12 +326,6 @@
   </si>
   <si>
     <t xml:space="preserve">医疗盈余率▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医务人员满意度▲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医务人员满意度</t>
   </si>
   <si>
     <t xml:space="preserve">医院感染发生率</t>
@@ -524,11 +518,11 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.33"/>
@@ -1299,15 +1293,15 @@
         <v>102</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,20 +1309,20 @@
         <v>105</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>3</v>
@@ -1336,31 +1330,31 @@
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>33</v>
@@ -1368,15 +1362,15 @@
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>10</v>
@@ -1384,47 +1378,47 @@
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>23</v>
@@ -1432,23 +1426,23 @@
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>28</v>
@@ -1456,15 +1450,15 @@
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>33</v>
@@ -1472,23 +1466,23 @@
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>33</v>
@@ -1496,20 +1490,13 @@
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
